--- a/Antecedentes/entrada.xlsx
+++ b/Antecedentes/entrada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar\OneDrive\Escritorio\Automatizaciones-ApostillaColombia\Antecedentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F09AEAA-4819-4823-ABDC-ACB3DC210DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCEF995-7080-4715-BD01-87CB2096BCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>#</t>
   </si>
@@ -41,156 +41,12 @@
   </si>
   <si>
     <t>OBSERVACIONES</t>
-  </si>
-  <si>
-    <t>SERGIO ANDRES RIVERA ROJAS</t>
-  </si>
-  <si>
-    <t>1112773242</t>
-  </si>
-  <si>
-    <t>BRAYAN DAVID PAEZ CANTILLO</t>
-  </si>
-  <si>
-    <t>1007743621</t>
-  </si>
-  <si>
-    <t>5/13/2021</t>
-  </si>
-  <si>
-    <t>MANUEL ALEJANDRO LOPEZ YELA</t>
-  </si>
-  <si>
-    <t>1115084014</t>
-  </si>
-  <si>
-    <t>ANDRES JULIAN RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>71387865</t>
-  </si>
-  <si>
-    <t>5/15/2000</t>
-  </si>
-  <si>
-    <t>SANDRA ESPINOSA OSPINA</t>
-  </si>
-  <si>
-    <t>39624740</t>
-  </si>
-  <si>
-    <t>2/26/1993</t>
-  </si>
-  <si>
-    <t>CAROLINA MARTINEZ MARIN</t>
-  </si>
-  <si>
-    <t>1116242332</t>
-  </si>
-  <si>
-    <t>DANNA JULIETH CARRILLO CARRILLO</t>
-  </si>
-  <si>
-    <t>1093789559</t>
-  </si>
-  <si>
-    <t>3/20/2015</t>
-  </si>
-  <si>
-    <t>CESAR ANDRES GIRALDO ACEVEDO</t>
-  </si>
-  <si>
-    <t>71269575</t>
-  </si>
-  <si>
-    <t>3/27/2001</t>
-  </si>
-  <si>
-    <t>PAULA ANDREA PALACIO CIFUENTES</t>
-  </si>
-  <si>
-    <t>1036619835</t>
-  </si>
-  <si>
-    <t>12/13/2006</t>
-  </si>
-  <si>
-    <t>LILIA OMAIRA ARIZA ROJAS</t>
-  </si>
-  <si>
-    <t>60328528</t>
-  </si>
-  <si>
-    <t>2/13/1987</t>
-  </si>
-  <si>
-    <t>ANDERSON SANCHEZ CARO</t>
-  </si>
-  <si>
-    <t>1093227811</t>
-  </si>
-  <si>
-    <t>3/25/2015</t>
-  </si>
-  <si>
-    <t>OSCAR DAVID BOLAÑOS SANCHEZ</t>
-  </si>
-  <si>
-    <t>1107058917</t>
-  </si>
-  <si>
-    <t>RAFAEL MAURICIO RUBIANO PAEZ</t>
-  </si>
-  <si>
-    <t>1000504681</t>
-  </si>
-  <si>
-    <t>2/27/2019</t>
-  </si>
-  <si>
-    <t>BRAYAN CASTELLANOS CORTES</t>
-  </si>
-  <si>
-    <t>1069759941</t>
-  </si>
-  <si>
-    <t>YULIETH MELISSA RODRIGUEZ LOPEZ</t>
-  </si>
-  <si>
-    <t>1117547605</t>
-  </si>
-  <si>
-    <t>7/27/2015</t>
-  </si>
-  <si>
-    <t>LEIDER DAVID RUIZ QUIÑONES</t>
-  </si>
-  <si>
-    <t>1058965304</t>
-  </si>
-  <si>
-    <t>5/16/2025</t>
-  </si>
-  <si>
-    <t>Error inesperado: ❌ El checkbox 'Acepto' no pudo marcarse después de 3 intentos</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA ROJAS CASTAÑO</t>
-  </si>
-  <si>
-    <t>38871266</t>
-  </si>
-  <si>
-    <t>10/31/1988</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,7 +101,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,13 +404,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="A1:G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -581,293 +445,85 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
-        <v>39850</v>
-      </c>
-      <c r="E2">
-        <v>525107201623135</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>52510713163170</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
-        <v>41488</v>
-      </c>
-      <c r="E4">
-        <v>525107194191610</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>525107119242024</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>5251077310521</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2">
-        <v>39001</v>
-      </c>
-      <c r="E7">
-        <v>52510717160</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>5251079195203</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9">
-        <v>525107131041015</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10">
-        <v>52510710720200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11">
-        <v>525107212182119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12">
-        <v>52510719155221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="2">
-        <v>39539</v>
-      </c>
-      <c r="E13">
-        <v>52510724161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14">
-        <v>52510720520160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="2">
-        <v>42346</v>
-      </c>
-      <c r="E15">
-        <v>5251078246513</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16">
-        <v>52510797161212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18">
-        <v>525107221240</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
